--- a/doc/Primary_development/5_プロジェクト終了報告書（Java）.xlsx
+++ b/doc/Primary_development/5_プロジェクト終了報告書（Java）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="144">
   <si>
     <t>・</t>
     <phoneticPr fontId="2"/>
@@ -1254,6 +1254,49 @@
     <t xml:space="preserve">越 </t>
     <rPh sb="0" eb="1">
       <t>コシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メンバーの作業状況をお互いが把握しつつ進める</t>
+    <rPh sb="5" eb="7">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業時間を明確に管理する</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2153,6 +2196,75 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2162,14 +2274,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2189,44 +2319,161 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2247,7 +2494,7 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2255,238 +2502,34 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2882,8 +2925,8 @@
   </sheetPr>
   <dimension ref="A1:BE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AP2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2901,142 +2944,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:57" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="213" t="s">
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="207" t="s">
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="207" t="s">
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="209" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="192"/>
-      <c r="AH1" s="192"/>
-      <c r="AI1" s="192"/>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="207" t="s">
+      <c r="Z1" s="207"/>
+      <c r="AA1" s="207"/>
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="207"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="219"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="220"/>
+      <c r="AK1" s="209" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
-      <c r="AP1" s="209"/>
-      <c r="AQ1" s="184" t="s">
+      <c r="AL1" s="207"/>
+      <c r="AM1" s="207"/>
+      <c r="AN1" s="207"/>
+      <c r="AO1" s="207"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="257" t="s">
+      <c r="AR1" s="221" t="s">
         <v>129</v>
       </c>
-      <c r="AS1" s="194"/>
-      <c r="AT1" s="194"/>
-      <c r="AU1" s="194"/>
-      <c r="AV1" s="194"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="184" t="s">
+      <c r="AS1" s="222"/>
+      <c r="AT1" s="222"/>
+      <c r="AU1" s="222"/>
+      <c r="AV1" s="222"/>
+      <c r="AW1" s="223"/>
+      <c r="AX1" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="AY1" s="177"/>
-      <c r="AZ1" s="178"/>
-      <c r="BA1" s="178"/>
-      <c r="BB1" s="178"/>
-      <c r="BC1" s="178"/>
-      <c r="BD1" s="179"/>
+      <c r="AY1" s="241"/>
+      <c r="AZ1" s="242"/>
+      <c r="BA1" s="242"/>
+      <c r="BB1" s="242"/>
+      <c r="BC1" s="242"/>
+      <c r="BD1" s="243"/>
     </row>
     <row r="2" spans="2:57" s="2" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="204"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="215" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="211" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="215" t="s">
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="215" t="s">
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="219"/>
-      <c r="AB2" s="219"/>
-      <c r="AC2" s="219"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="218"/>
-      <c r="AF2" s="216"/>
-      <c r="AG2" s="216"/>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="217"/>
-      <c r="AK2" s="258">
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="212"/>
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="212"/>
+      <c r="AJ2" s="213"/>
+      <c r="AK2" s="217">
         <v>42908</v>
       </c>
-      <c r="AL2" s="219"/>
-      <c r="AM2" s="219"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="219"/>
-      <c r="AP2" s="220"/>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="180"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="181"/>
-      <c r="BB2" s="181"/>
-      <c r="BC2" s="181"/>
-      <c r="BD2" s="182"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="249"/>
+      <c r="AR2" s="224"/>
+      <c r="AS2" s="225"/>
+      <c r="AT2" s="225"/>
+      <c r="AU2" s="225"/>
+      <c r="AV2" s="225"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="249"/>
+      <c r="AY2" s="244"/>
+      <c r="AZ2" s="245"/>
+      <c r="BA2" s="245"/>
+      <c r="BB2" s="245"/>
+      <c r="BC2" s="245"/>
+      <c r="BD2" s="246"/>
     </row>
     <row r="3" spans="2:57" s="4" customFormat="1" ht="9.75" customHeight="1">
       <c r="B3" s="3"/>
@@ -3148,29 +3191,29 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="210" t="s">
+      <c r="G5" s="237" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="211"/>
-      <c r="Q5" s="211"/>
-      <c r="R5" s="211"/>
-      <c r="S5" s="211"/>
-      <c r="T5" s="211"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="211"/>
-      <c r="W5" s="211"/>
-      <c r="X5" s="211"/>
-      <c r="Y5" s="211"/>
-      <c r="Z5" s="211"/>
-      <c r="AA5" s="211"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="238"/>
+      <c r="U5" s="238"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238"/>
+      <c r="AA5" s="238"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="27"/>
@@ -3270,31 +3313,31 @@
       <c r="H7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="189" t="s">
+      <c r="I7" s="235" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="190"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="190"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="236"/>
+      <c r="P7" s="236"/>
+      <c r="Q7" s="236"/>
       <c r="R7" s="25"/>
       <c r="S7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="189" t="s">
+      <c r="T7" s="235" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="190"/>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
+      <c r="U7" s="236"/>
+      <c r="V7" s="236"/>
+      <c r="W7" s="236"/>
+      <c r="X7" s="236"/>
+      <c r="Y7" s="236"/>
+      <c r="Z7" s="236"/>
+      <c r="AA7" s="236"/>
       <c r="AB7" s="31"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="17"/>
@@ -3307,34 +3350,34 @@
       <c r="AI7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AJ7" s="170" t="s">
+      <c r="AJ7" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="AK7" s="171"/>
-      <c r="AL7" s="171"/>
-      <c r="AM7" s="171"/>
-      <c r="AN7" s="171"/>
-      <c r="AO7" s="170" t="s">
+      <c r="AK7" s="240"/>
+      <c r="AL7" s="240"/>
+      <c r="AM7" s="240"/>
+      <c r="AN7" s="240"/>
+      <c r="AO7" s="239" t="s">
         <v>85</v>
       </c>
-      <c r="AP7" s="171"/>
-      <c r="AQ7" s="171"/>
-      <c r="AR7" s="171"/>
-      <c r="AS7" s="171"/>
-      <c r="AT7" s="171"/>
-      <c r="AU7" s="171"/>
-      <c r="AV7" s="171"/>
-      <c r="AW7" s="188">
+      <c r="AP7" s="240"/>
+      <c r="AQ7" s="240"/>
+      <c r="AR7" s="240"/>
+      <c r="AS7" s="240"/>
+      <c r="AT7" s="240"/>
+      <c r="AU7" s="240"/>
+      <c r="AV7" s="240"/>
+      <c r="AW7" s="250">
         <v>2.4</v>
       </c>
-      <c r="AX7" s="188"/>
-      <c r="AY7" s="188"/>
-      <c r="AZ7" s="186" t="s">
+      <c r="AX7" s="250"/>
+      <c r="AY7" s="250"/>
+      <c r="AZ7" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="BA7" s="186"/>
-      <c r="BB7" s="186"/>
-      <c r="BC7" s="186"/>
+      <c r="BA7" s="194"/>
+      <c r="BB7" s="194"/>
+      <c r="BC7" s="194"/>
       <c r="BD7" s="24"/>
     </row>
     <row r="8" spans="2:57" s="16" customFormat="1" ht="13.5" customHeight="1">
@@ -3347,31 +3390,31 @@
       <c r="H8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="189" t="s">
+      <c r="I8" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="190"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
+      <c r="O8" s="236"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="236"/>
       <c r="R8" s="25"/>
       <c r="S8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="189" t="s">
+      <c r="T8" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="190"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="236"/>
+      <c r="W8" s="236"/>
+      <c r="X8" s="236"/>
+      <c r="Y8" s="236"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="236"/>
       <c r="AB8" s="31"/>
       <c r="AC8" s="29"/>
       <c r="AD8" s="17"/>
@@ -3382,34 +3425,34 @@
       <c r="AI8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="172" t="s">
+      <c r="AJ8" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AK8" s="173"/>
-      <c r="AL8" s="173"/>
-      <c r="AM8" s="173"/>
-      <c r="AN8" s="173"/>
-      <c r="AO8" s="172" t="s">
+      <c r="AK8" s="197"/>
+      <c r="AL8" s="197"/>
+      <c r="AM8" s="197"/>
+      <c r="AN8" s="197"/>
+      <c r="AO8" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="AP8" s="173"/>
-      <c r="AQ8" s="173"/>
-      <c r="AR8" s="173"/>
-      <c r="AS8" s="173"/>
-      <c r="AT8" s="173"/>
-      <c r="AU8" s="173"/>
-      <c r="AV8" s="173"/>
-      <c r="AW8" s="187">
+      <c r="AP8" s="197"/>
+      <c r="AQ8" s="197"/>
+      <c r="AR8" s="197"/>
+      <c r="AS8" s="197"/>
+      <c r="AT8" s="197"/>
+      <c r="AU8" s="197"/>
+      <c r="AV8" s="197"/>
+      <c r="AW8" s="201">
         <v>2.9</v>
       </c>
-      <c r="AX8" s="187"/>
-      <c r="AY8" s="187"/>
-      <c r="AZ8" s="157" t="s">
+      <c r="AX8" s="201"/>
+      <c r="AY8" s="201"/>
+      <c r="AZ8" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="BA8" s="157"/>
-      <c r="BB8" s="157"/>
-      <c r="BC8" s="157"/>
+      <c r="BA8" s="247"/>
+      <c r="BB8" s="247"/>
+      <c r="BC8" s="247"/>
       <c r="BD8" s="24"/>
     </row>
     <row r="9" spans="2:57" s="16" customFormat="1" ht="13.5" customHeight="1">
@@ -3422,29 +3465,29 @@
       <c r="H9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="189" t="s">
+      <c r="I9" s="235" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="190"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="236"/>
+      <c r="O9" s="236"/>
+      <c r="P9" s="236"/>
+      <c r="Q9" s="236"/>
       <c r="R9" s="25"/>
       <c r="S9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="190"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="190"/>
+      <c r="T9" s="236"/>
+      <c r="U9" s="236"/>
+      <c r="V9" s="236"/>
+      <c r="W9" s="236"/>
+      <c r="X9" s="236"/>
+      <c r="Y9" s="236"/>
+      <c r="Z9" s="236"/>
+      <c r="AA9" s="236"/>
       <c r="AB9" s="31"/>
       <c r="AC9" s="29"/>
       <c r="AD9" s="17"/>
@@ -3468,17 +3511,17 @@
       <c r="AT9" s="26"/>
       <c r="AU9" s="26"/>
       <c r="AV9" s="26"/>
-      <c r="AW9" s="187">
+      <c r="AW9" s="201">
         <v>21.7</v>
       </c>
-      <c r="AX9" s="187"/>
-      <c r="AY9" s="187"/>
-      <c r="AZ9" s="157" t="s">
+      <c r="AX9" s="201"/>
+      <c r="AY9" s="201"/>
+      <c r="AZ9" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="BA9" s="157"/>
-      <c r="BB9" s="157"/>
-      <c r="BC9" s="157"/>
+      <c r="BA9" s="247"/>
+      <c r="BB9" s="247"/>
+      <c r="BC9" s="247"/>
       <c r="BD9" s="24"/>
     </row>
     <row r="10" spans="2:57" s="16" customFormat="1" ht="13.5" customHeight="1">
@@ -3531,17 +3574,17 @@
       <c r="AT10" s="26"/>
       <c r="AU10" s="26"/>
       <c r="AV10" s="26"/>
-      <c r="AW10" s="187">
+      <c r="AW10" s="201">
         <v>847.5</v>
       </c>
-      <c r="AX10" s="187"/>
-      <c r="AY10" s="187"/>
-      <c r="AZ10" s="157" t="s">
+      <c r="AX10" s="201"/>
+      <c r="AY10" s="201"/>
+      <c r="AZ10" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="BA10" s="157"/>
-      <c r="BB10" s="157"/>
-      <c r="BC10" s="157"/>
+      <c r="BA10" s="247"/>
+      <c r="BB10" s="247"/>
+      <c r="BC10" s="247"/>
       <c r="BD10" s="24"/>
     </row>
     <row r="11" spans="2:57" s="16" customFormat="1" ht="13.5" customHeight="1">
@@ -3556,27 +3599,27 @@
       <c r="H11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="189" t="s">
+      <c r="I11" s="235" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="236"/>
+      <c r="N11" s="236"/>
+      <c r="O11" s="236"/>
+      <c r="P11" s="236"/>
+      <c r="Q11" s="236"/>
+      <c r="R11" s="236"/>
+      <c r="S11" s="236"/>
+      <c r="T11" s="236"/>
+      <c r="U11" s="236"/>
+      <c r="V11" s="236"/>
+      <c r="W11" s="236"/>
+      <c r="X11" s="236"/>
+      <c r="Y11" s="236"/>
+      <c r="Z11" s="236"/>
+      <c r="AA11" s="236"/>
       <c r="AB11" s="31"/>
       <c r="AC11" s="29"/>
       <c r="AD11" s="17"/>
@@ -3587,34 +3630,34 @@
       <c r="AI11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AJ11" s="172" t="s">
+      <c r="AJ11" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="173"/>
-      <c r="AN11" s="173"/>
-      <c r="AO11" s="172" t="s">
+      <c r="AK11" s="197"/>
+      <c r="AL11" s="197"/>
+      <c r="AM11" s="197"/>
+      <c r="AN11" s="197"/>
+      <c r="AO11" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="173"/>
-      <c r="AQ11" s="173"/>
-      <c r="AR11" s="173"/>
-      <c r="AS11" s="173"/>
-      <c r="AT11" s="173"/>
-      <c r="AU11" s="173"/>
-      <c r="AV11" s="173"/>
-      <c r="AW11" s="221">
+      <c r="AP11" s="197"/>
+      <c r="AQ11" s="197"/>
+      <c r="AR11" s="197"/>
+      <c r="AS11" s="197"/>
+      <c r="AT11" s="197"/>
+      <c r="AU11" s="197"/>
+      <c r="AV11" s="197"/>
+      <c r="AW11" s="202">
         <v>2372750</v>
       </c>
-      <c r="AX11" s="187"/>
-      <c r="AY11" s="187"/>
-      <c r="AZ11" s="157" t="s">
+      <c r="AX11" s="201"/>
+      <c r="AY11" s="201"/>
+      <c r="AZ11" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="BA11" s="157"/>
-      <c r="BB11" s="157"/>
-      <c r="BC11" s="157"/>
+      <c r="BA11" s="247"/>
+      <c r="BB11" s="247"/>
+      <c r="BC11" s="247"/>
       <c r="BD11" s="24"/>
     </row>
     <row r="12" spans="2:57" s="16" customFormat="1" ht="13.5" customHeight="1">
@@ -3627,27 +3670,27 @@
       <c r="H12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="199" t="s">
+      <c r="I12" s="227" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="200"/>
-      <c r="U12" s="200"/>
-      <c r="V12" s="200"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
-      <c r="AA12" s="200"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="228"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="228"/>
+      <c r="R12" s="228"/>
+      <c r="S12" s="228"/>
+      <c r="T12" s="228"/>
+      <c r="U12" s="228"/>
+      <c r="V12" s="228"/>
+      <c r="W12" s="228"/>
+      <c r="X12" s="228"/>
+      <c r="Y12" s="228"/>
+      <c r="Z12" s="228"/>
+      <c r="AA12" s="228"/>
       <c r="AB12" s="31"/>
       <c r="AC12" s="29"/>
       <c r="AD12" s="27"/>
@@ -3658,34 +3701,34 @@
       <c r="AI12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AJ12" s="172" t="s">
+      <c r="AJ12" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="AK12" s="173"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="173"/>
-      <c r="AN12" s="173"/>
-      <c r="AO12" s="172" t="s">
+      <c r="AK12" s="197"/>
+      <c r="AL12" s="197"/>
+      <c r="AM12" s="197"/>
+      <c r="AN12" s="197"/>
+      <c r="AO12" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="AP12" s="173"/>
-      <c r="AQ12" s="173"/>
-      <c r="AR12" s="173"/>
-      <c r="AS12" s="173"/>
-      <c r="AT12" s="173"/>
-      <c r="AU12" s="173"/>
-      <c r="AV12" s="173"/>
-      <c r="AW12" s="174">
+      <c r="AP12" s="197"/>
+      <c r="AQ12" s="197"/>
+      <c r="AR12" s="197"/>
+      <c r="AS12" s="197"/>
+      <c r="AT12" s="197"/>
+      <c r="AU12" s="197"/>
+      <c r="AV12" s="197"/>
+      <c r="AW12" s="203">
         <v>89</v>
       </c>
-      <c r="AX12" s="174"/>
-      <c r="AY12" s="174"/>
-      <c r="AZ12" s="157" t="s">
+      <c r="AX12" s="203"/>
+      <c r="AY12" s="203"/>
+      <c r="AZ12" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="BA12" s="157"/>
-      <c r="BB12" s="157"/>
-      <c r="BC12" s="157"/>
+      <c r="BA12" s="247"/>
+      <c r="BB12" s="247"/>
+      <c r="BC12" s="247"/>
       <c r="BD12" s="24"/>
     </row>
     <row r="13" spans="2:57" s="36" customFormat="1" ht="13.5" customHeight="1">
@@ -3695,26 +3738,30 @@
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="200"/>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="200"/>
-      <c r="T13" s="200"/>
-      <c r="U13" s="200"/>
-      <c r="V13" s="200"/>
-      <c r="W13" s="200"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="200"/>
-      <c r="Z13" s="200"/>
-      <c r="AA13" s="200"/>
+      <c r="H13" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="227" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="228"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="228"/>
+      <c r="R13" s="228"/>
+      <c r="S13" s="228"/>
+      <c r="T13" s="228"/>
+      <c r="U13" s="228"/>
+      <c r="V13" s="228"/>
+      <c r="W13" s="228"/>
+      <c r="X13" s="228"/>
+      <c r="Y13" s="228"/>
+      <c r="Z13" s="228"/>
+      <c r="AA13" s="228"/>
       <c r="AB13" s="31"/>
       <c r="AC13" s="29"/>
       <c r="AD13" s="27"/>
@@ -3727,32 +3774,32 @@
       <c r="AI13" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AJ13" s="175" t="s">
+      <c r="AJ13" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="AK13" s="176"/>
-      <c r="AL13" s="176"/>
-      <c r="AM13" s="176"/>
-      <c r="AN13" s="176"/>
-      <c r="AO13" s="176"/>
-      <c r="AP13" s="176"/>
-      <c r="AQ13" s="176"/>
-      <c r="AR13" s="176"/>
-      <c r="AS13" s="176"/>
-      <c r="AT13" s="176"/>
-      <c r="AU13" s="176"/>
-      <c r="AV13" s="176"/>
-      <c r="AW13" s="222" t="s">
+      <c r="AK13" s="199"/>
+      <c r="AL13" s="199"/>
+      <c r="AM13" s="199"/>
+      <c r="AN13" s="199"/>
+      <c r="AO13" s="199"/>
+      <c r="AP13" s="199"/>
+      <c r="AQ13" s="199"/>
+      <c r="AR13" s="199"/>
+      <c r="AS13" s="199"/>
+      <c r="AT13" s="199"/>
+      <c r="AU13" s="199"/>
+      <c r="AV13" s="199"/>
+      <c r="AW13" s="204" t="s">
         <v>134</v>
       </c>
-      <c r="AX13" s="212"/>
-      <c r="AY13" s="212"/>
-      <c r="AZ13" s="183" t="s">
+      <c r="AX13" s="205"/>
+      <c r="AY13" s="205"/>
+      <c r="AZ13" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="BA13" s="183"/>
-      <c r="BB13" s="183"/>
-      <c r="BC13" s="183"/>
+      <c r="BA13" s="200"/>
+      <c r="BB13" s="200"/>
+      <c r="BC13" s="200"/>
       <c r="BD13" s="24"/>
     </row>
     <row r="14" spans="2:57" s="36" customFormat="1" ht="13.5" customHeight="1">
@@ -3762,26 +3809,30 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
+      <c r="H14" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="227" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="228"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="228"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="228"/>
+      <c r="O14" s="228"/>
+      <c r="P14" s="228"/>
+      <c r="Q14" s="228"/>
+      <c r="R14" s="228"/>
+      <c r="S14" s="228"/>
+      <c r="T14" s="228"/>
+      <c r="U14" s="228"/>
+      <c r="V14" s="228"/>
+      <c r="W14" s="228"/>
+      <c r="X14" s="228"/>
+      <c r="Y14" s="228"/>
+      <c r="Z14" s="228"/>
+      <c r="AA14" s="228"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="29"/>
       <c r="AD14" s="27"/>
@@ -3792,34 +3843,34 @@
       <c r="AI14" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AJ14" s="175" t="s">
+      <c r="AJ14" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="AK14" s="176"/>
-      <c r="AL14" s="176"/>
-      <c r="AM14" s="176"/>
-      <c r="AN14" s="176"/>
-      <c r="AO14" s="175" t="s">
+      <c r="AK14" s="199"/>
+      <c r="AL14" s="199"/>
+      <c r="AM14" s="199"/>
+      <c r="AN14" s="199"/>
+      <c r="AO14" s="198" t="s">
         <v>68</v>
       </c>
-      <c r="AP14" s="176"/>
-      <c r="AQ14" s="176"/>
-      <c r="AR14" s="176"/>
-      <c r="AS14" s="176"/>
-      <c r="AT14" s="176"/>
-      <c r="AU14" s="176"/>
-      <c r="AV14" s="176"/>
-      <c r="AW14" s="212" t="s">
+      <c r="AP14" s="199"/>
+      <c r="AQ14" s="199"/>
+      <c r="AR14" s="199"/>
+      <c r="AS14" s="199"/>
+      <c r="AT14" s="199"/>
+      <c r="AU14" s="199"/>
+      <c r="AV14" s="199"/>
+      <c r="AW14" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="AX14" s="212"/>
-      <c r="AY14" s="212"/>
-      <c r="AZ14" s="183" t="s">
+      <c r="AX14" s="205"/>
+      <c r="AY14" s="205"/>
+      <c r="AZ14" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="BA14" s="183"/>
-      <c r="BB14" s="183"/>
-      <c r="BC14" s="183"/>
+      <c r="BA14" s="200"/>
+      <c r="BB14" s="200"/>
+      <c r="BC14" s="200"/>
       <c r="BD14" s="24"/>
     </row>
     <row r="15" spans="2:57" s="36" customFormat="1" ht="13.5" customHeight="1">
@@ -3863,70 +3914,70 @@
       <c r="AI15" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AJ15" s="175" t="s">
+      <c r="AJ15" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="AK15" s="176"/>
-      <c r="AL15" s="176"/>
-      <c r="AM15" s="176"/>
-      <c r="AN15" s="176"/>
-      <c r="AO15" s="155" t="s">
+      <c r="AK15" s="199"/>
+      <c r="AL15" s="199"/>
+      <c r="AM15" s="199"/>
+      <c r="AN15" s="199"/>
+      <c r="AO15" s="251" t="s">
         <v>52</v>
       </c>
-      <c r="AP15" s="156"/>
-      <c r="AQ15" s="156"/>
-      <c r="AR15" s="156"/>
-      <c r="AS15" s="156"/>
-      <c r="AT15" s="156"/>
-      <c r="AU15" s="156"/>
-      <c r="AV15" s="156"/>
-      <c r="AW15" s="212" t="s">
+      <c r="AP15" s="252"/>
+      <c r="AQ15" s="252"/>
+      <c r="AR15" s="252"/>
+      <c r="AS15" s="252"/>
+      <c r="AT15" s="252"/>
+      <c r="AU15" s="252"/>
+      <c r="AV15" s="252"/>
+      <c r="AW15" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="AX15" s="212"/>
-      <c r="AY15" s="212"/>
-      <c r="AZ15" s="183" t="s">
+      <c r="AX15" s="205"/>
+      <c r="AY15" s="205"/>
+      <c r="AZ15" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="BA15" s="183"/>
-      <c r="BB15" s="183"/>
-      <c r="BC15" s="183"/>
+      <c r="BA15" s="200"/>
+      <c r="BB15" s="200"/>
+      <c r="BC15" s="200"/>
       <c r="BD15" s="24"/>
     </row>
     <row r="16" spans="2:57" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="B16" s="27"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="158" t="s">
+      <c r="E16" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="158" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="158" t="s">
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="159"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="158" t="s">
+      <c r="P16" s="188"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="160"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
+      <c r="Z16" s="189"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="29"/>
@@ -3938,34 +3989,34 @@
       <c r="AI16" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="AJ16" s="172" t="s">
+      <c r="AJ16" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="AK16" s="173"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="173"/>
-      <c r="AN16" s="173"/>
-      <c r="AO16" s="172" t="s">
+      <c r="AK16" s="197"/>
+      <c r="AL16" s="197"/>
+      <c r="AM16" s="197"/>
+      <c r="AN16" s="197"/>
+      <c r="AO16" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="AP16" s="173"/>
-      <c r="AQ16" s="173"/>
-      <c r="AR16" s="173"/>
-      <c r="AS16" s="173"/>
-      <c r="AT16" s="173"/>
-      <c r="AU16" s="173"/>
-      <c r="AV16" s="173"/>
-      <c r="AW16" s="174">
+      <c r="AP16" s="197"/>
+      <c r="AQ16" s="197"/>
+      <c r="AR16" s="197"/>
+      <c r="AS16" s="197"/>
+      <c r="AT16" s="197"/>
+      <c r="AU16" s="197"/>
+      <c r="AV16" s="197"/>
+      <c r="AW16" s="203">
         <v>13.7</v>
       </c>
-      <c r="AX16" s="174"/>
-      <c r="AY16" s="174"/>
-      <c r="AZ16" s="157" t="s">
+      <c r="AX16" s="203"/>
+      <c r="AY16" s="203"/>
+      <c r="AZ16" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="BA16" s="157"/>
-      <c r="BB16" s="157"/>
-      <c r="BC16" s="157"/>
+      <c r="BA16" s="247"/>
+      <c r="BB16" s="247"/>
+      <c r="BC16" s="247"/>
       <c r="BD16" s="31"/>
       <c r="BE16" s="29"/>
     </row>
@@ -3973,28 +4024,28 @@
       <c r="B17" s="27"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="163"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="191"/>
+      <c r="R17" s="191"/>
+      <c r="S17" s="191"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="190"/>
+      <c r="W17" s="191"/>
+      <c r="X17" s="191"/>
+      <c r="Y17" s="191"/>
+      <c r="Z17" s="192"/>
       <c r="AA17" s="91"/>
       <c r="AB17" s="31"/>
       <c r="AC17" s="29"/>
@@ -4068,26 +4119,26 @@
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
       <c r="AI18" s="26"/>
-      <c r="AJ18" s="172"/>
-      <c r="AK18" s="173"/>
-      <c r="AL18" s="173"/>
-      <c r="AM18" s="173"/>
-      <c r="AN18" s="173"/>
-      <c r="AO18" s="172"/>
-      <c r="AP18" s="173"/>
-      <c r="AQ18" s="173"/>
-      <c r="AR18" s="173"/>
-      <c r="AS18" s="173"/>
-      <c r="AT18" s="173"/>
-      <c r="AU18" s="173"/>
-      <c r="AV18" s="173"/>
-      <c r="AW18" s="174"/>
-      <c r="AX18" s="174"/>
-      <c r="AY18" s="174"/>
-      <c r="AZ18" s="157"/>
-      <c r="BA18" s="157"/>
-      <c r="BB18" s="157"/>
-      <c r="BC18" s="157"/>
+      <c r="AJ18" s="196"/>
+      <c r="AK18" s="197"/>
+      <c r="AL18" s="197"/>
+      <c r="AM18" s="197"/>
+      <c r="AN18" s="197"/>
+      <c r="AO18" s="196"/>
+      <c r="AP18" s="197"/>
+      <c r="AQ18" s="197"/>
+      <c r="AR18" s="197"/>
+      <c r="AS18" s="197"/>
+      <c r="AT18" s="197"/>
+      <c r="AU18" s="197"/>
+      <c r="AV18" s="197"/>
+      <c r="AW18" s="203"/>
+      <c r="AX18" s="203"/>
+      <c r="AY18" s="203"/>
+      <c r="AZ18" s="247"/>
+      <c r="BA18" s="247"/>
+      <c r="BB18" s="247"/>
+      <c r="BC18" s="247"/>
       <c r="BD18" s="31"/>
       <c r="BE18" s="29"/>
     </row>
@@ -4182,7 +4233,7 @@
       <c r="V20" s="139"/>
       <c r="W20" s="99"/>
       <c r="X20" s="99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="99"/>
       <c r="Z20" s="100"/>
@@ -4193,24 +4244,24 @@
       <c r="AI20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AO20" s="158" t="s">
+      <c r="AO20" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="AP20" s="159"/>
-      <c r="AQ20" s="160"/>
-      <c r="AR20" s="164" t="s">
+      <c r="AP20" s="188"/>
+      <c r="AQ20" s="189"/>
+      <c r="AR20" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="AS20" s="165"/>
-      <c r="AT20" s="165"/>
-      <c r="AU20" s="166"/>
-      <c r="AV20" s="152" t="s">
+      <c r="AS20" s="254"/>
+      <c r="AT20" s="254"/>
+      <c r="AU20" s="255"/>
+      <c r="AV20" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="AW20" s="153"/>
-      <c r="AX20" s="153"/>
-      <c r="AY20" s="153"/>
-      <c r="AZ20" s="154"/>
+      <c r="AW20" s="176"/>
+      <c r="AX20" s="176"/>
+      <c r="AY20" s="176"/>
+      <c r="AZ20" s="177"/>
       <c r="BA20" s="27"/>
       <c r="BB20" s="29"/>
       <c r="BC20" s="29"/>
@@ -4242,7 +4293,9 @@
       <c r="U21" s="98"/>
       <c r="V21" s="119"/>
       <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
+      <c r="X21" s="120">
+        <v>3</v>
+      </c>
       <c r="Y21" s="120"/>
       <c r="Z21" s="121"/>
       <c r="AA21" s="37"/>
@@ -4250,20 +4303,20 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="27"/>
       <c r="AI21" s="38"/>
-      <c r="AO21" s="161"/>
-      <c r="AP21" s="162"/>
-      <c r="AQ21" s="163"/>
-      <c r="AR21" s="167"/>
-      <c r="AS21" s="168"/>
-      <c r="AT21" s="168"/>
-      <c r="AU21" s="169"/>
-      <c r="AV21" s="161" t="s">
+      <c r="AO21" s="190"/>
+      <c r="AP21" s="191"/>
+      <c r="AQ21" s="192"/>
+      <c r="AR21" s="256"/>
+      <c r="AS21" s="257"/>
+      <c r="AT21" s="257"/>
+      <c r="AU21" s="258"/>
+      <c r="AV21" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="AW21" s="162"/>
-      <c r="AX21" s="162"/>
-      <c r="AY21" s="162"/>
-      <c r="AZ21" s="163"/>
+      <c r="AW21" s="191"/>
+      <c r="AX21" s="191"/>
+      <c r="AY21" s="191"/>
+      <c r="AZ21" s="192"/>
       <c r="BA21" s="27"/>
       <c r="BB21" s="29"/>
       <c r="BC21" s="29"/>
@@ -4294,7 +4347,9 @@
       <c r="U22" s="121"/>
       <c r="V22" s="119"/>
       <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
+      <c r="X22" s="120">
+        <v>3</v>
+      </c>
       <c r="Y22" s="120"/>
       <c r="Z22" s="121"/>
       <c r="AA22" s="37"/>
@@ -4598,7 +4653,7 @@
       <c r="AR26" s="109"/>
       <c r="AS26" s="109"/>
       <c r="AT26" s="109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU26" s="88" t="s">
         <v>59</v>
@@ -4606,7 +4661,7 @@
       <c r="AV26" s="105"/>
       <c r="AW26" s="105"/>
       <c r="AX26" s="105">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AY26" s="57" t="s">
         <v>53</v>
@@ -4666,14 +4721,16 @@
       <c r="AR27" s="109"/>
       <c r="AS27" s="109"/>
       <c r="AT27" s="109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU27" s="87" t="s">
         <v>59</v>
       </c>
       <c r="AV27" s="109"/>
       <c r="AW27" s="109"/>
-      <c r="AX27" s="109"/>
+      <c r="AX27" s="109">
+        <v>1</v>
+      </c>
       <c r="AY27" s="80" t="s">
         <v>53</v>
       </c>
@@ -4710,7 +4767,7 @@
       <c r="V28" s="139"/>
       <c r="W28" s="99"/>
       <c r="X28" s="99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y28" s="99"/>
       <c r="Z28" s="100"/>
@@ -4736,7 +4793,7 @@
       <c r="AR28" s="105"/>
       <c r="AS28" s="105"/>
       <c r="AT28" s="105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU28" s="87" t="s">
         <v>59</v>
@@ -4744,7 +4801,7 @@
       <c r="AV28" s="105"/>
       <c r="AW28" s="105"/>
       <c r="AX28" s="105">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AY28" s="57" t="s">
         <v>53</v>
@@ -4781,7 +4838,7 @@
       <c r="V29" s="113"/>
       <c r="W29" s="114"/>
       <c r="X29" s="114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="114"/>
       <c r="Z29" s="115"/>
@@ -4850,7 +4907,9 @@
       <c r="U30" s="100"/>
       <c r="V30" s="139"/>
       <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
+      <c r="X30" s="99">
+        <v>3</v>
+      </c>
       <c r="Y30" s="99"/>
       <c r="Z30" s="100"/>
       <c r="AA30" s="37"/>
@@ -4872,21 +4931,21 @@
       </c>
       <c r="AP30" s="54"/>
       <c r="AQ30" s="53"/>
-      <c r="AR30" s="226">
+      <c r="AR30" s="195">
         <v>21</v>
       </c>
-      <c r="AS30" s="226"/>
-      <c r="AT30" s="226"/>
+      <c r="AS30" s="195"/>
+      <c r="AT30" s="195"/>
       <c r="AU30" s="90" t="s">
         <v>59</v>
       </c>
       <c r="AV30" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="AW30" s="226">
+      <c r="AW30" s="195">
         <v>12</v>
       </c>
-      <c r="AX30" s="226"/>
+      <c r="AX30" s="195"/>
       <c r="AY30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5070,12 +5129,12 @@
       <c r="AY33" s="52">
         <v>3.6</v>
       </c>
-      <c r="AZ33" s="186" t="s">
+      <c r="AZ33" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="BA33" s="186"/>
-      <c r="BB33" s="186"/>
-      <c r="BC33" s="186"/>
+      <c r="BA33" s="194"/>
+      <c r="BB33" s="194"/>
+      <c r="BC33" s="194"/>
       <c r="BD33" s="31"/>
     </row>
     <row r="34" spans="1:56" s="36" customFormat="1" ht="13.5" customHeight="1">
@@ -5339,25 +5398,25 @@
       <c r="B38" s="27"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="158" t="s">
+      <c r="E38" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="159"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="159"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="159"/>
-      <c r="S38" s="159"/>
-      <c r="T38" s="159"/>
-      <c r="U38" s="160"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="188"/>
+      <c r="O38" s="188"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="188"/>
+      <c r="R38" s="188"/>
+      <c r="S38" s="188"/>
+      <c r="T38" s="188"/>
+      <c r="U38" s="189"/>
       <c r="V38" s="74" t="s">
         <v>30</v>
       </c>
@@ -5403,28 +5462,28 @@
       <c r="B39" s="27"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="162"/>
-      <c r="R39" s="162"/>
-      <c r="S39" s="162"/>
-      <c r="T39" s="162"/>
-      <c r="U39" s="163"/>
-      <c r="V39" s="223"/>
-      <c r="W39" s="224"/>
-      <c r="X39" s="224"/>
-      <c r="Y39" s="224"/>
-      <c r="Z39" s="225"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="191"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="191"/>
+      <c r="Q39" s="191"/>
+      <c r="R39" s="191"/>
+      <c r="S39" s="191"/>
+      <c r="T39" s="191"/>
+      <c r="U39" s="192"/>
+      <c r="V39" s="193"/>
+      <c r="W39" s="167"/>
+      <c r="X39" s="167"/>
+      <c r="Y39" s="167"/>
+      <c r="Z39" s="168"/>
       <c r="AA39" s="37"/>
       <c r="AB39" s="31"/>
       <c r="AC39" s="29"/>
@@ -5583,25 +5642,25 @@
       <c r="B42" s="147"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="152" t="s">
+      <c r="E42" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="230" t="s">
+      <c r="F42" s="176"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="176"/>
+      <c r="O42" s="177"/>
+      <c r="P42" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="231"/>
-      <c r="R42" s="231"/>
-      <c r="S42" s="232"/>
+      <c r="Q42" s="182"/>
+      <c r="R42" s="182"/>
+      <c r="S42" s="183"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -5645,21 +5704,21 @@
       <c r="B43" s="147"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
-      <c r="H43" s="228"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="228"/>
-      <c r="L43" s="228"/>
-      <c r="M43" s="228"/>
-      <c r="N43" s="228"/>
-      <c r="O43" s="229"/>
-      <c r="P43" s="233"/>
-      <c r="Q43" s="234"/>
-      <c r="R43" s="234"/>
-      <c r="S43" s="235"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="179"/>
+      <c r="L43" s="179"/>
+      <c r="M43" s="179"/>
+      <c r="N43" s="179"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="184"/>
+      <c r="Q43" s="185"/>
+      <c r="R43" s="185"/>
+      <c r="S43" s="186"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -5712,18 +5771,18 @@
       <c r="I44" s="76"/>
       <c r="J44" s="92"/>
       <c r="K44" s="92"/>
-      <c r="L44" s="247">
+      <c r="L44" s="153">
         <v>10</v>
       </c>
-      <c r="M44" s="248"/>
-      <c r="N44" s="248"/>
-      <c r="O44" s="249"/>
-      <c r="P44" s="247">
-        <v>539</v>
-      </c>
-      <c r="Q44" s="248"/>
-      <c r="R44" s="248"/>
-      <c r="S44" s="249"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="155"/>
+      <c r="P44" s="153">
+        <v>1128</v>
+      </c>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="155"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -5776,18 +5835,18 @@
       <c r="I45" s="72"/>
       <c r="J45" s="92"/>
       <c r="K45" s="92"/>
-      <c r="L45" s="247">
+      <c r="L45" s="153">
         <v>15</v>
       </c>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248"/>
-      <c r="O45" s="249"/>
-      <c r="P45" s="247">
-        <v>397</v>
-      </c>
-      <c r="Q45" s="248"/>
-      <c r="R45" s="248"/>
-      <c r="S45" s="249"/>
+      <c r="M45" s="154"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="155"/>
+      <c r="P45" s="153">
+        <v>702</v>
+      </c>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154"/>
+      <c r="S45" s="155"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -5840,18 +5899,18 @@
       <c r="I46" s="72"/>
       <c r="J46" s="92"/>
       <c r="K46" s="92"/>
-      <c r="L46" s="250">
+      <c r="L46" s="153">
         <v>6</v>
       </c>
-      <c r="M46" s="246"/>
-      <c r="N46" s="246"/>
-      <c r="O46" s="251"/>
-      <c r="P46" s="247">
-        <v>299</v>
-      </c>
-      <c r="Q46" s="248"/>
-      <c r="R46" s="248"/>
-      <c r="S46" s="249"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="153">
+        <v>422</v>
+      </c>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154"/>
+      <c r="S46" s="155"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -5902,18 +5961,18 @@
       <c r="I47" s="72"/>
       <c r="J47" s="92"/>
       <c r="K47" s="92"/>
-      <c r="L47" s="247">
+      <c r="L47" s="153">
         <v>4</v>
       </c>
-      <c r="M47" s="248"/>
-      <c r="N47" s="248"/>
-      <c r="O47" s="249"/>
-      <c r="P47" s="247">
-        <v>490</v>
-      </c>
-      <c r="Q47" s="248"/>
-      <c r="R47" s="248"/>
-      <c r="S47" s="249"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="153">
+        <v>491</v>
+      </c>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154"/>
+      <c r="S47" s="155"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -5964,18 +6023,18 @@
       <c r="I48" s="72"/>
       <c r="J48" s="92"/>
       <c r="K48" s="92"/>
-      <c r="L48" s="247">
+      <c r="L48" s="153">
         <v>5</v>
       </c>
-      <c r="M48" s="248"/>
-      <c r="N48" s="248"/>
-      <c r="O48" s="249"/>
-      <c r="P48" s="247">
-        <v>307</v>
-      </c>
-      <c r="Q48" s="246"/>
-      <c r="R48" s="246"/>
-      <c r="S48" s="251"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="153">
+        <v>312</v>
+      </c>
+      <c r="Q48" s="156"/>
+      <c r="R48" s="156"/>
+      <c r="S48" s="157"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -6011,27 +6070,27 @@
       <c r="B49" s="147"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="244" t="s">
+      <c r="E49" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="245"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="245"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
       <c r="I49" s="142"/>
       <c r="J49" s="93"/>
       <c r="K49" s="93"/>
-      <c r="L49" s="252">
-        <v>12</v>
-      </c>
-      <c r="M49" s="253"/>
-      <c r="N49" s="253"/>
-      <c r="O49" s="254"/>
-      <c r="P49" s="252">
+      <c r="L49" s="172">
+        <v>1</v>
+      </c>
+      <c r="M49" s="173"/>
+      <c r="N49" s="173"/>
+      <c r="O49" s="174"/>
+      <c r="P49" s="172">
         <v>2</v>
       </c>
-      <c r="Q49" s="253"/>
-      <c r="R49" s="253"/>
-      <c r="S49" s="254"/>
+      <c r="Q49" s="173"/>
+      <c r="R49" s="173"/>
+      <c r="S49" s="174"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -6067,15 +6126,15 @@
       <c r="B50" s="147"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="236" t="s">
+      <c r="E50" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="237"/>
-      <c r="G50" s="237"/>
-      <c r="H50" s="237"/>
-      <c r="I50" s="237"/>
-      <c r="J50" s="237"/>
-      <c r="K50" s="238"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="162"/>
       <c r="L50" s="74" t="s">
         <v>76</v>
       </c>
@@ -6087,11 +6146,11 @@
       <c r="P50" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="255">
+      <c r="Q50" s="158">
         <v>2034</v>
       </c>
-      <c r="R50" s="255"/>
-      <c r="S50" s="256"/>
+      <c r="R50" s="158"/>
+      <c r="S50" s="159"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -6133,21 +6192,21 @@
       <c r="B51" s="147"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="239"/>
-      <c r="F51" s="240"/>
-      <c r="G51" s="240"/>
-      <c r="H51" s="240"/>
-      <c r="I51" s="240"/>
-      <c r="J51" s="240"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="242"/>
-      <c r="M51" s="224"/>
-      <c r="N51" s="224"/>
-      <c r="O51" s="225"/>
-      <c r="P51" s="243"/>
-      <c r="Q51" s="224"/>
-      <c r="R51" s="224"/>
-      <c r="S51" s="225"/>
+      <c r="E51" s="163"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="166"/>
+      <c r="M51" s="167"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="168"/>
+      <c r="P51" s="169"/>
+      <c r="Q51" s="167"/>
+      <c r="R51" s="167"/>
+      <c r="S51" s="168"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -6629,64 +6688,30 @@
       <c r="AB123" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="E50:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="E42:O43"/>
-    <mergeCell ref="P42:S43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="E38:U39"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="AZ33:BC33"/>
-    <mergeCell ref="AW30:AX30"/>
-    <mergeCell ref="AR30:AT30"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AJ13:AV13"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="AW10:AY10"/>
-    <mergeCell ref="AW11:AY11"/>
-    <mergeCell ref="AW12:AY12"/>
-    <mergeCell ref="AW13:AY13"/>
-    <mergeCell ref="AW14:AY14"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AK2:AP2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AR1:AW2"/>
-    <mergeCell ref="I13:AA13"/>
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I11:AA11"/>
-    <mergeCell ref="I12:AA12"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="G5:AA5"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="AO11:AV11"/>
+  <mergeCells count="97">
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="AV20:AZ20"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AZ18:BC18"/>
+    <mergeCell ref="AO20:AQ21"/>
+    <mergeCell ref="AR20:AU21"/>
+    <mergeCell ref="AV21:AZ21"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="I14:AA14"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="AW18:AY18"/>
+    <mergeCell ref="AJ16:AN16"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="J16:N17"/>
+    <mergeCell ref="O16:U17"/>
+    <mergeCell ref="V16:Z17"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AW16:AY16"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AO18:AV18"/>
     <mergeCell ref="AY1:BD2"/>
     <mergeCell ref="AJ18:AN18"/>
     <mergeCell ref="AZ10:BC10"/>
@@ -6703,29 +6728,64 @@
     <mergeCell ref="AW7:AY7"/>
     <mergeCell ref="AW8:AY8"/>
     <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AR1:AW2"/>
+    <mergeCell ref="I13:AA13"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I11:AA11"/>
+    <mergeCell ref="I12:AA12"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="G5:AA5"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="AO11:AV11"/>
     <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="AW18:AY18"/>
-    <mergeCell ref="AJ16:AN16"/>
-    <mergeCell ref="E16:I17"/>
-    <mergeCell ref="J16:N17"/>
-    <mergeCell ref="O16:U17"/>
-    <mergeCell ref="V16:Z17"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AW16:AY16"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AO18:AV18"/>
-    <mergeCell ref="T7:AA7"/>
-    <mergeCell ref="AV20:AZ20"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AZ18:BC18"/>
-    <mergeCell ref="AO20:AQ21"/>
-    <mergeCell ref="AR20:AU21"/>
-    <mergeCell ref="AV21:AZ21"/>
-    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AJ13:AV13"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="AW10:AY10"/>
+    <mergeCell ref="AW11:AY11"/>
+    <mergeCell ref="AW12:AY12"/>
+    <mergeCell ref="AW13:AY13"/>
+    <mergeCell ref="AW14:AY14"/>
+    <mergeCell ref="E38:U39"/>
+    <mergeCell ref="V39:Z39"/>
+    <mergeCell ref="AZ33:BC33"/>
+    <mergeCell ref="AW30:AX30"/>
+    <mergeCell ref="AR30:AT30"/>
+    <mergeCell ref="E42:O43"/>
+    <mergeCell ref="P42:S43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="E50:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="P47:S47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.47" right="0.27559055118110237" top="0.55118110236220474" bottom="0.39370078740157483" header="0" footer="0.23622047244094491"/>
